--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/16.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/16.xlsx
@@ -479,13 +479,13 @@
         <v>-12.63451968332078</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.13476389368088</v>
+        <v>-11.94130884353766</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.707098172422791</v>
+        <v>0.378233915258374</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.52271855372811</v>
+        <v>-11.1067007219833</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.86274145365874</v>
       </c>
       <c r="E3" t="n">
-        <v>-13.57672076070902</v>
+        <v>-12.50210454346015</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.6282825093156</v>
+        <v>0.4794243239220748</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.52893739757793</v>
+        <v>-10.92895961860403</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.05855085504641</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.82910108258898</v>
+        <v>-13.0167629681684</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.808210027269442</v>
+        <v>0.3453984197313251</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.65984733369235</v>
+        <v>-10.79281276135292</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.1906254215376</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.1907890408945</v>
+        <v>-13.54586220291108</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.526633870052439</v>
+        <v>0.6028978320223933</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.67783615779688</v>
+        <v>-10.61801742611303</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.27108557165045</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.81191407231167</v>
+        <v>-14.26360842930018</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.623346711144269</v>
+        <v>0.5895174985181493</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.81398301504799</v>
+        <v>-10.32057339785186</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.28927010832899</v>
       </c>
       <c r="E7" t="n">
-        <v>-15.11572095975392</v>
+        <v>-14.80083798410757</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.42499832309212</v>
+        <v>0.694295198160483</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.16304999341409</v>
+        <v>-10.3048364498361</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-13.25212685343603</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.62165991076959</v>
+        <v>-15.51013967516376</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.194181023992489</v>
+        <v>0.9888196428879527</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.64845703022005</v>
+        <v>-9.686604817346959</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.16873344576981</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.33964179860984</v>
+        <v>-16.36015743716283</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.105166456971594</v>
+        <v>1.089748205494819</v>
       </c>
       <c r="G9" t="n">
-        <v>-10.36470755073132</v>
+        <v>-9.122234918748672</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.04098614740222</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.126371368672</v>
+        <v>-17.05631445616593</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.061294150148969</v>
+        <v>1.302655234306968</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.981207815891478</v>
+        <v>-8.564057679394523</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-12.88159783022881</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.12217192281369</v>
+        <v>-18.03614240084071</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.931837459649982</v>
+        <v>1.46976538777876</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.81100787894904</v>
+        <v>-8.296581932338059</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.70715595696371</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.80760634578942</v>
+        <v>-18.93555742146161</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.900821794217933</v>
+        <v>1.686259707569542</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.385049805993482</v>
+        <v>-7.798288886181965</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-12.5212046845959</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.21273456492379</v>
+        <v>-19.47053510018021</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.080029235515479</v>
+        <v>1.628417913614796</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.762275144418256</v>
+        <v>-7.15473673999692</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.33754143859299</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.10043197450134</v>
+        <v>-20.43734929583032</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.539461143483452</v>
+        <v>2.102594937936431</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.817063248457001</v>
+        <v>-6.351497776051343</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.16406480886828</v>
       </c>
       <c r="E15" t="n">
-        <v>-20.81481347906012</v>
+        <v>-21.31584281651014</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.495955421140396</v>
+        <v>2.169130020978083</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.460913334253527</v>
+        <v>-6.019607899013587</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.99194439990257</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.36831676629978</v>
+        <v>-22.01574423412597</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.416393496771227</v>
+        <v>2.344802540508363</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.896229220387039</v>
+        <v>-5.56779252794562</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.8198194733651</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.17594165169733</v>
+        <v>-22.8862383577695</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.247934836106737</v>
+        <v>2.632466618546768</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.750001289947801</v>
+        <v>-5.5686958968417</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-11.63785306920697</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.25373929853675</v>
+        <v>-23.90521228794104</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.16132925280872</v>
+        <v>2.556505077459074</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.398080189562204</v>
+        <v>-5.340916012001349</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.42485226051246</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.73422681282809</v>
+        <v>-24.51738218421447</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.805716123021756</v>
+        <v>2.82817036142489</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.39137693050724</v>
+        <v>-5.315621682911135</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.17275846359853</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.26875935325009</v>
+        <v>-24.99176868538157</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4519882848440011</v>
+        <v>3.105674812458115</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.06696275839211</v>
+        <v>-5.043406522225967</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.86872184892937</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.99858977516211</v>
+        <v>-25.69550614773003</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3561395357397246</v>
+        <v>3.047518803235168</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.76006608747921</v>
+        <v>-4.94771488075579</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.49657432216121</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.56633748789356</v>
+        <v>-26.21491707836983</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01782900263133883</v>
+        <v>3.27197324315372</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.957249260578446</v>
+        <v>-5.069944620086145</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.05793049319362</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.125234803904</v>
+        <v>-26.67867262962945</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1156285048590326</v>
+        <v>3.255712603024296</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.696817172450831</v>
+        <v>-5.05700942487852</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.55290046860325</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.38764382976072</v>
+        <v>-27.04397406351929</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3908287105921145</v>
+        <v>3.46880292407623</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.741160802175757</v>
+        <v>-5.280337926752683</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-8.984731566039089</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.68715644187088</v>
+        <v>-27.18398315010871</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2998110212364349</v>
+        <v>3.292554343220913</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.463446874297063</v>
+        <v>-4.950948679557697</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-8.376689659855957</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.23496457737438</v>
+        <v>-27.60496614798441</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8770506535281373</v>
+        <v>3.531855454561982</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.580400415582202</v>
+        <v>-5.016004332378234</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.750040254292183</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.02286927133842</v>
+        <v>-27.44148256239977</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7359156288943303</v>
+        <v>3.472966276379899</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.569559988829254</v>
+        <v>-4.968125780886042</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.125261479477137</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.20235165099565</v>
+        <v>-27.68662284080825</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5651265383240136</v>
+        <v>3.229475628129477</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.598821285680511</v>
+        <v>-5.020743746006938</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-6.531982796924972</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.09883081242612</v>
+        <v>-27.65351240692153</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7247086176618127</v>
+        <v>3.379853818569543</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.658469817427416</v>
+        <v>-5.053893456802189</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.987858824584763</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.79529886334354</v>
+        <v>-27.33360198698395</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6197607180825365</v>
+        <v>3.23382227267293</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.724232454601405</v>
+        <v>-5.135406134294776</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.503072235787774</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.51918219641154</v>
+        <v>-27.07954585034026</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4163063319221134</v>
+        <v>3.193916933611349</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.703376416174536</v>
+        <v>-5.018662069855104</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.090645769637415</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.29722838633576</v>
+        <v>-26.81330077975091</v>
       </c>
       <c r="F32" t="n">
-        <v>0.473729172185924</v>
+        <v>3.156656239723797</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.886223517662082</v>
+        <v>-5.221540394690491</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.749258009340938</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.13400664680796</v>
+        <v>-26.60534264141294</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5373708562995544</v>
+        <v>3.226961905983866</v>
       </c>
       <c r="G33" t="n">
-        <v>-6.312836205759726</v>
+        <v>-5.550877272674111</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.470794998616561</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.72154673808222</v>
+        <v>-26.12710700321037</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4824879227870387</v>
+        <v>3.137148708489625</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.376700459021666</v>
+        <v>-5.700365186520939</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.250173425748455</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.30374516979706</v>
+        <v>-25.76094147733297</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4395320771633355</v>
+        <v>3.128324496374302</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.492069831662956</v>
+        <v>-5.802275671840935</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.073364302454446</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.03225008576818</v>
+        <v>-25.47585658295439</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3861809430833018</v>
+        <v>3.128848188487971</v>
       </c>
       <c r="G36" t="n">
-        <v>-6.408266001173067</v>
+        <v>-5.72237334759788</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.926242458053107</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.70660523718593</v>
+        <v>-25.02853187176113</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1220306409486366</v>
+        <v>2.883891202319276</v>
       </c>
       <c r="G37" t="n">
-        <v>-6.433769807108749</v>
+        <v>-5.997796122479271</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.801876494408781</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.04825878878973</v>
+        <v>-24.4374143984572</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6074015841999472</v>
+        <v>3.325573130987746</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.336899858382819</v>
+        <v>-5.958244275594417</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.690924758671078</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.72537641610709</v>
+        <v>-24.06745210475571</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4440751062494144</v>
+        <v>3.253015588638901</v>
       </c>
       <c r="G39" t="n">
-        <v>-6.454900783895296</v>
+        <v>-6.227016160632211</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.586579239280766</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.28678427090927</v>
+        <v>-23.51682912414123</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3017224974513269</v>
+        <v>3.251130297029692</v>
       </c>
       <c r="G40" t="n">
-        <v>-6.048921565076212</v>
+        <v>-6.082346214231139</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.488398977869052</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.78348996506763</v>
+        <v>-23.04058351597061</v>
       </c>
       <c r="F41" t="n">
-        <v>0.500633854525671</v>
+        <v>3.385195478128967</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.303095532445481</v>
+        <v>-6.338588765449401</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.395587638574309</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.45340682582203</v>
+        <v>-22.52494316854922</v>
       </c>
       <c r="F42" t="n">
-        <v>0.541547300906065</v>
+        <v>3.434527275236591</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.340068195670516</v>
+        <v>-6.461119627745116</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.309398750964658</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.82022378348763</v>
+        <v>-21.87722767006051</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5159911257590157</v>
+        <v>3.374302682164651</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.019869745070421</v>
+        <v>-6.257049903351131</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.236201526636231</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.68884252447091</v>
+        <v>-21.65760428989056</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4516555495947738</v>
+        <v>3.388311446205298</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.844354333174242</v>
+        <v>-6.10989241941013</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.183051329019636</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.82204043022876</v>
+        <v>-20.87341462657969</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3281296722830884</v>
+        <v>3.29776507975192</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.951148247454202</v>
+        <v>-6.121321999790957</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.156515866610693</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.42373330087493</v>
+        <v>-20.29618808659083</v>
       </c>
       <c r="F46" t="n">
-        <v>0.06219881696194847</v>
+        <v>3.012248139379558</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.008335426266861</v>
+        <v>-6.104315098399555</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.165215009744177</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.49979639703147</v>
+        <v>-19.42561540913026</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4205220534371492</v>
+        <v>3.30640599962746</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.839261427368811</v>
+        <v>-6.150308358282539</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.216843021686579</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.93465405256553</v>
+        <v>-18.76281757776787</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1507682456862253</v>
+        <v>3.122406775489841</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.218741825236241</v>
+        <v>-6.403709879784147</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.314584194856254</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.37584838267497</v>
+        <v>-18.19554118793872</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2378975210979123</v>
+        <v>3.207480559355377</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.569955941268384</v>
+        <v>-6.715725641108162</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.46098826259132</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.87942753582525</v>
+        <v>-17.6184848478868</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2165177905573736</v>
+        <v>3.108581303688978</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.475560437779539</v>
+        <v>-6.52654186504522</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.656279965609729</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.36152222001225</v>
+        <v>-17.20903616881466</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2963415609833775</v>
+        <v>3.2308634122307</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.707359659592299</v>
+        <v>-6.767204575881829</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.894299503045982</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.84572476495676</v>
+        <v>-16.84865744079331</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1243741631573056</v>
+        <v>3.087319403874015</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.681855853656617</v>
+        <v>-6.753667134743484</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.168534608551416</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.79250137055127</v>
+        <v>-15.89230399511375</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1676835009577354</v>
+        <v>3.13968861524092</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.678268562677984</v>
+        <v>-6.820149848573769</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.471334523589322</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.97716511877994</v>
+        <v>-15.23686403794841</v>
       </c>
       <c r="F54" t="n">
-        <v>0.06747501500716407</v>
+        <v>3.01992022884481</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.095336962004009</v>
+        <v>-7.238252539824291</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.789880133918673</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.4374742110383</v>
+        <v>-14.77098753362844</v>
       </c>
       <c r="F55" t="n">
-        <v>0.08322505532576054</v>
+        <v>3.084674758699987</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.276743910178966</v>
+        <v>-7.483091695267411</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.114114714476827</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.33943904735946</v>
+        <v>-14.66560758805538</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.1088259350595192</v>
+        <v>2.940214289144381</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.284402907341375</v>
+        <v>-7.579176105822838</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.435899612430928</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.85630688789409</v>
+        <v>-14.26874061201414</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09185288289845801</v>
+        <v>3.063439043490707</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.109123156896347</v>
+        <v>-7.411463706420327</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.743955273152011</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.7010583607969</v>
+        <v>-14.1592234987431</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.04515806634020529</v>
+        <v>2.953411330408841</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.428378961691838</v>
+        <v>-7.710871580107761</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.032208153982387</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.15027827254832</v>
+        <v>-13.54571818757982</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.06380150558682321</v>
+        <v>2.980774243348049</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.958250642302175</v>
+        <v>-8.137471175902563</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.297467650780335</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.47912755197292</v>
+        <v>-13.10279249014138</v>
       </c>
       <c r="F60" t="n">
-        <v>0.09728618857777434</v>
+        <v>3.140264676565956</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.969706407288685</v>
+        <v>-8.117165014195045</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.534301198244651</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.40221027277778</v>
+        <v>-13.03421500785642</v>
       </c>
       <c r="F61" t="n">
-        <v>0.07011966018119274</v>
+        <v>3.129214772967539</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.226354819895041</v>
+        <v>-8.310394311836081</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.743287968891777</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.05205663327582</v>
+        <v>-12.72305024621712</v>
       </c>
       <c r="F62" t="n">
-        <v>0.04294003948176942</v>
+        <v>3.112194779273295</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.195941400393712</v>
+        <v>-8.411034843780429</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.926599620617801</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.41769528368566</v>
+        <v>-12.23050472100854</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2799947024122458</v>
+        <v>2.933720506934885</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.24803567340094</v>
+        <v>-8.463129116787657</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.083329963501727</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.1710232058447</v>
+        <v>-12.0697181498093</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2523175742048369</v>
+        <v>2.919109496963519</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.180976898245619</v>
+        <v>-8.319192339345721</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.217381342392259</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.01085197287902</v>
+        <v>-11.93057315520744</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.4089538854032476</v>
+        <v>2.79441840469892</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.462081732560319</v>
+        <v>-8.515969651056864</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.331445578288345</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.09576864911046</v>
+        <v>-12.01635392342643</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3869980935376729</v>
+        <v>2.844038232469062</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.526443493330245</v>
+        <v>-8.632883915433478</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.424580761331278</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.82431284199011</v>
+        <v>-11.87788972857233</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6882650742286315</v>
+        <v>2.650717288708135</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.345939914051367</v>
+        <v>-8.535372443868301</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.50025737390083</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.71453388266224</v>
+        <v>-11.65398516537313</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.8424662170984811</v>
+        <v>2.417648113519727</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.259805653655651</v>
+        <v>-8.510065022475246</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.559139981982889</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.61143199778365</v>
+        <v>-11.60491521432234</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.040853882059156</v>
+        <v>2.299241326619156</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.097696759869399</v>
+        <v>-8.420605317157731</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.599320532642752</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.75214806872652</v>
+        <v>-11.73943862602108</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.064812796259515</v>
+        <v>2.227469322440814</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.11014753987188</v>
+        <v>-8.506084962411361</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.623062841947768</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.04061077723827</v>
+        <v>-11.89600947570528</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.044964865151458</v>
+        <v>2.19057521303283</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.813331942147109</v>
+        <v>-8.38145933166097</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.628841269799693</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.87808292976108</v>
+        <v>-11.84373191045827</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.289542174537743</v>
+        <v>2.011315402523917</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.735511294055889</v>
+        <v>-8.383999238412265</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.614604316003372</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.06187267705323</v>
+        <v>-12.03707903882488</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.40170393298281</v>
+        <v>1.827132886146515</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.224335421903537</v>
+        <v>-8.021551926541921</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.583428908132126</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.4291903255807</v>
+        <v>-12.36743711643016</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.418514449831586</v>
+        <v>1.826268794158961</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.942130834150131</v>
+        <v>-7.750528165415349</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.535087802026522</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.73984448740917</v>
+        <v>-12.67335186462993</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.58237771219863</v>
+        <v>1.706657515396951</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.387331408929147</v>
+        <v>-7.415548504906946</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.470750829773315</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.90281747318298</v>
+        <v>-12.79834407985988</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.761401861256392</v>
+        <v>1.543213206720843</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.263308024109477</v>
+        <v>-7.383773485910076</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.396457311703333</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.18765361380757</v>
+        <v>-13.13879632295613</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.728893673300386</v>
+        <v>1.643369323460047</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.034415293527579</v>
+        <v>-7.246762536671413</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.313242915142034</v>
       </c>
       <c r="E78" t="n">
-        <v>-12.66486805238849</v>
+        <v>-13.45831397380845</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.831079096980058</v>
+        <v>1.511006141730197</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.531553033679723</v>
+        <v>-6.883503502024881</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.223045309615711</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.93610129036053</v>
+        <v>-13.78136654642804</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.183602443296374</v>
+        <v>1.23038572262064</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.537104170084615</v>
+        <v>-6.948938831627829</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.130140302422639</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.51708532126496</v>
+        <v>-14.27111031882849</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.876640310869265</v>
+        <v>1.439024660706387</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.329381693197789</v>
+        <v>-6.828031414884489</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.031746669537121</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.95749729655779</v>
+        <v>-14.72267693614247</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.012027814555554</v>
+        <v>1.379088098296965</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.125613091769164</v>
+        <v>-6.761967654745138</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.926200432279315</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.65883886748621</v>
+        <v>-15.37602212485312</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.955691635427607</v>
+        <v>1.424439835340704</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.074854233651792</v>
+        <v>-6.661222384378057</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.813862493107516</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.13915618184061</v>
+        <v>-16.04781436826777</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.024884455946129</v>
+        <v>1.424649312186172</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.008908304238018</v>
+        <v>-6.665765413464135</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.689088029940757</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.96374869172105</v>
+        <v>-16.86626658811543</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.064475579739509</v>
+        <v>1.4271368497261</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.777894620595761</v>
+        <v>-6.394650006217672</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.549722221484229</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.47144519467138</v>
+        <v>-18.20948449046516</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.083891464853789</v>
+        <v>1.398386152685669</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.399527068469879</v>
+        <v>-6.021205159960278</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.397340534731884</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.62520438259849</v>
+        <v>-19.29597542639148</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.102534904100406</v>
+        <v>1.389457202147612</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.007268583028924</v>
+        <v>-5.643963545878782</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.22984960109838</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.55598856082816</v>
+        <v>-20.29423733346741</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.326858420990541</v>
+        <v>1.217948034921001</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.850056210505477</v>
+        <v>-5.551191487942312</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.050926838233908</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.05787208131677</v>
+        <v>-21.75862449861732</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.401877316273632</v>
+        <v>1.171758390495391</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.510808459270671</v>
+        <v>-5.215282273932146</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.869793805447295</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.50563202185768</v>
+        <v>-23.27940021210653</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.388693367312013</v>
+        <v>1.281314780674955</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.742005435152712</v>
+        <v>-5.366105602668831</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.692307458085685</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.86611867165564</v>
+        <v>-24.66216996134111</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.356158994750324</v>
+        <v>1.268719985341214</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.546026753914914</v>
+        <v>-5.269392761577</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.528258462435589</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.41809334281669</v>
+        <v>-26.13500166182393</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.404692161384602</v>
+        <v>1.221273479842799</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.3960413325601</v>
+        <v>-5.147359406789271</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.39207297717949</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.07938874270615</v>
+        <v>-27.84468621301641</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.40126197804007</v>
+        <v>1.249539761678086</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.604837378279948</v>
+        <v>-5.349543839574047</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.292130262086935</v>
       </c>
       <c r="E93" t="n">
-        <v>-28.94233179096388</v>
+        <v>-29.73922098803122</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.261907506592738</v>
+        <v>1.301738773108047</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.109493283617121</v>
+        <v>-5.743753078138419</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.237294563658739</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.18754389759433</v>
+        <v>-31.92094851818214</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.266529089495867</v>
+        <v>1.251477422498661</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.975074610341119</v>
+        <v>-5.557685270151808</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.237974785813848</v>
       </c>
       <c r="E95" t="n">
-        <v>-32.79030361147844</v>
+        <v>-33.72631161854196</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.31736650143029</v>
+        <v>1.095862310921905</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.304751888198624</v>
+        <v>-5.843765179546365</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.298112909017204</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.19500615132679</v>
+        <v>-36.15876984041476</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.015994782316597</v>
+        <v>1.222700540852547</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.927618195893741</v>
+        <v>-6.212496796780737</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.412703824553339</v>
       </c>
       <c r="E97" t="n">
-        <v>-37.43296512218291</v>
+        <v>-38.41902500301035</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.900154086773005</v>
+        <v>1.277177612976969</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.436489822745949</v>
+        <v>-6.651232957309819</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.588764527771136</v>
       </c>
       <c r="E98" t="n">
-        <v>-39.5930641680393</v>
+        <v>-40.66134371071278</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.205859358127308</v>
+        <v>0.8731229626756194</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.454229893096489</v>
+        <v>-6.716799209941184</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.804295669433525</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.76376797919748</v>
+        <v>-42.88232196478319</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.302454368493564</v>
+        <v>0.7928409616501552</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.038028769111896</v>
+        <v>-7.107709188189441</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.067117531053289</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.15700166175648</v>
+        <v>-45.17685277621842</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.431636120632875</v>
+        <v>0.5873048993378976</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.275235111998288</v>
+        <v>-7.201620276473141</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.340337941387403</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.01800704919363</v>
+        <v>-47.17566774336758</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.402937792803811</v>
+        <v>0.3636490898926912</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.702567876752227</v>
+        <v>-7.268744513142671</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.659975562693418</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.6677974982391</v>
+        <v>-49.7869799143612</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.143526904297851</v>
+        <v>0.4032925828974377</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.306633637566627</v>
+        <v>-7.594507192450499</v>
       </c>
     </row>
   </sheetData>
